--- a/Source/Excel/game.xlsx
+++ b/Source/Excel/game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A924E23-AA22-4895-9843-4615AD7B06DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20692C1-F463-4071-8AE7-F65FAAABFDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30075" yWindow="1065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Key</t>
   </si>
@@ -67,12 +67,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>2,7</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>2,10</t>
+  </si>
+  <si>
+    <t>2,11</t>
+  </si>
+  <si>
+    <t>2,12</t>
+  </si>
+  <si>
+    <t>2,13</t>
+  </si>
+  <si>
+    <t>2,14</t>
   </si>
 </sst>
 </file>
@@ -445,7 +476,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -466,18 +497,18 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
         <v>124</v>
@@ -487,8 +518,8 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C4">
         <v>125</v>
@@ -498,8 +529,8 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C5">
         <v>126</v>
@@ -509,8 +540,8 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C6">
         <v>127</v>
@@ -520,8 +551,8 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C7">
         <v>128</v>
@@ -531,8 +562,8 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>7</v>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C8">
         <v>129</v>
@@ -542,8 +573,8 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>8</v>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C9">
         <v>130</v>
@@ -553,8 +584,8 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>9</v>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C10">
         <v>131</v>
@@ -564,8 +595,8 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>10</v>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C11">
         <v>132</v>
@@ -575,8 +606,8 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>11</v>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C12">
         <v>133</v>

--- a/Source/Excel/game.xlsx
+++ b/Source/Excel/game.xlsx
@@ -8,24 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Game\Source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20692C1-F463-4071-8AE7-F65FAAABFDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4A2947-7CAC-44E8-9E25-6EBE11AB5C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31785" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Key</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>value</t>
   </si>
@@ -104,13 +99,25 @@
   </si>
   <si>
     <t>2,14</t>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +135,23 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -160,14 +184,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,143 +497,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="D6" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="D9" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="D10" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="D11" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
+      <c r="D12" s="1">
         <v>133</v>
       </c>
     </row>
@@ -618,32 +678,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>